--- a/hardware/MedicionesMatrices.xlsx
+++ b/hardware/MedicionesMatrices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itba2-my.sharepoint.com/personal/juanmrodriguez_itba_edu_ar/Documents/ITBA/IEEE-I+D/asimov-cup-csm/hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OneDrive - ITBA\ITBA\IEEE-I+D\asimov-cup-csm\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{93992AA6-1075-4D7B-A4FA-043295EA68AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFA49379-209F-4845-BAD7-D16988C55640}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F76D29C-D6B3-4C7F-9D17-4277D854B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75120DCD-6B02-4562-BF54-6247AED3B122}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t xml:space="preserve">matriz </t>
   </si>
@@ -99,6 +99,39 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>Alimentacion en serie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TRES - ieee</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Con dos fuentes en paralelo max I=5A</t>
+  </si>
+  <si>
+    <t>Con una fuente max I=3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOS - ieee </t>
+  </si>
+  <si>
+    <t>Se observa un led rojo quemado</t>
+  </si>
+  <si>
+    <t>Calienta la primera</t>
+  </si>
+  <si>
+    <t>Se ve mejor, consume menos</t>
   </si>
 </sst>
 </file>
@@ -142,12 +175,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,10 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588EC8A7-F5F5-4015-976F-09518A956F16}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="12.77734375" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -855,12 +886,310 @@
         <v>255</v>
       </c>
     </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+      <c r="M13">
+        <v>255</v>
+      </c>
+      <c r="N13">
+        <v>255</v>
+      </c>
+      <c r="O13">
+        <v>255</v>
+      </c>
+      <c r="P13">
+        <v>1.2</v>
+      </c>
+      <c r="Q13">
+        <v>3.36</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+      <c r="M14">
+        <v>255</v>
+      </c>
+      <c r="N14">
+        <v>255</v>
+      </c>
+      <c r="O14">
+        <v>255</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+      <c r="M15">
+        <v>255</v>
+      </c>
+      <c r="N15">
+        <v>255</v>
+      </c>
+      <c r="O15">
+        <v>255</v>
+      </c>
+      <c r="P15">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+      <c r="M16">
+        <v>255</v>
+      </c>
+      <c r="N16">
+        <v>255</v>
+      </c>
+      <c r="O16">
+        <v>255</v>
+      </c>
+      <c r="P16">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+      <c r="M17">
+        <v>255</v>
+      </c>
+      <c r="N17">
+        <v>255</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2.29</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+      <c r="M18">
+        <v>255</v>
+      </c>
+      <c r="N18">
+        <v>255</v>
+      </c>
+      <c r="O18">
+        <v>70</v>
+      </c>
+      <c r="P18">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+      <c r="M19">
+        <v>255</v>
+      </c>
+      <c r="N19">
+        <v>255</v>
+      </c>
+      <c r="O19">
+        <v>80</v>
+      </c>
+      <c r="P19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+      <c r="M20">
+        <v>255</v>
+      </c>
+      <c r="N20">
+        <v>255</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+      <c r="M21">
+        <v>255</v>
+      </c>
+      <c r="N21">
+        <v>255</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+      <c r="M22">
+        <v>255</v>
+      </c>
+      <c r="N22">
+        <v>255</v>
+      </c>
+      <c r="O22">
+        <v>60</v>
+      </c>
+      <c r="P22">
+        <v>1.6</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G23" s="4"/>
+      <c r="K23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
